--- a/Docs/Brake Balance Table.xlsx
+++ b/Docs/Brake Balance Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15092BBC-682D-48F9-860D-BB77B1EC2358}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CB6A1F3-B2D2-4C10-966A-222217C6B1CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,20 +657,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53A2CF9-C721-44C5-8A93-F91D726F5388}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.125" customWidth="1"/>
+    <col min="1" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.08203125" customWidth="1"/>
     <col min="11" max="11" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:10" ht="40" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>7</v>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <f t="shared" ref="B2" si="0">D2*(300/370)</f>
@@ -696,7 +696,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:10" ht="40" customHeight="1">
       <c r="A3" s="5">
         <v>17.420000000000002</v>
       </c>
@@ -713,7 +713,7 @@
         <v>3718.75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:10" ht="40" customHeight="1">
       <c r="A4" s="2">
         <v>19</v>
       </c>
@@ -730,7 +730,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:10" ht="40" customHeight="1">
       <c r="A5" s="8">
         <v>21.38</v>
       </c>
@@ -747,7 +747,7 @@
         <v>2468.75</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:10" ht="40" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -771,12 +771,12 @@
       <c r="I7" s="15"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:10" ht="40" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="16">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C8" s="6">
         <f>B3*B11*B8+B3*B11*(1-B8)</f>
@@ -792,54 +792,54 @@
       </c>
       <c r="F8" s="6">
         <f>B3*B11*B8/C8</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="6">
         <f>B3*B11*B8+B4*B11*(1-B8)</f>
-        <v>2366.5033783783783</v>
+        <v>2378.7795608108108</v>
       </c>
       <c r="D9" s="6">
         <f>C3*B11*B8+C4*B11*(1-B8)</f>
-        <v>2800.3623310810808</v>
+        <v>2814.8891469594591</v>
       </c>
       <c r="E9" s="6">
         <f>D3*B11*B8+D4*B11*(1-B8)</f>
-        <v>2918.6875</v>
+        <v>2933.828125</v>
       </c>
       <c r="F9" s="6">
         <f>B3*B11*B8/C9</f>
-        <v>0.5631598107025847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1">
+        <v>0.59257582616568583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="6">
         <f>B3*B11*B8+B5*B11*(1-B8)</f>
-        <v>2149.4087837837837</v>
+        <v>2175.2533783783783</v>
       </c>
       <c r="D10" s="6">
         <f>C3*B11*B8+C5*B11*(1-B8)</f>
-        <v>2543.4670608108108</v>
+        <v>2574.0498310810813</v>
       </c>
       <c r="E10" s="6">
         <f>D3*B11*B8+D5*B11*(1-B8)</f>
-        <v>2650.9375</v>
+        <v>2682.8125</v>
       </c>
       <c r="F10" s="6">
         <f>B3*B11*B8/C10</f>
-        <v>0.62004008016032064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1">
+        <v>0.64801980198019804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -860,32 +860,32 @@
       </c>
       <c r="F11" s="6">
         <f>B4*B11*B8/C11</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="6">
         <f>B4*B11*B8+B5*B11*(1-B8)</f>
-        <v>1936.6216216216217</v>
+        <v>1950.1900337837837</v>
       </c>
       <c r="D12" s="6">
         <f>C4*B11*B8+C5*B11*(1-B8)</f>
-        <v>2291.6689189189187</v>
+        <v>2307.7248733108108</v>
       </c>
       <c r="E12" s="6">
         <f>D4*B11*B8+D5*B11*(1-B8)</f>
-        <v>2388.5</v>
+        <v>2405.234375</v>
       </c>
       <c r="F12" s="6">
         <f>B4*B11*B8/C12</f>
-        <v>0.57829181494661919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1">
+        <v>0.60739922694643844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -904,7 +904,7 @@
       </c>
       <c r="F13" s="6">
         <f>B5*B11*B8/C13</f>
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>
